--- a/resources/Libro2.xlsx
+++ b/resources/Libro2.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Afluente biofiltro</t>
+          <t>Afluente biofiltro compuesto</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Efluente biofiltro</t>
+          <t>Efluente biofiltro compuesto</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Efluente 2</t>
+          <t>Efluente 2 compuesto</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6806,7 +6806,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Efluente</t>
+          <t>Efluente compuesto</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Afluente</t>
+          <t>Afluente compuesto</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
